--- a/data/trans_orig/POLIPATOLOGIA_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6284</v>
+        <v>6299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20938</v>
+        <v>19854</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02334408000137748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01271868397893994</v>
+        <v>0.0127489094320702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04237869249942885</v>
+        <v>0.04018532141411939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -765,19 +765,19 @@
         <v>36606</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27286</v>
+        <v>25429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48626</v>
+        <v>48074</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07830320707697433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05836625105659877</v>
+        <v>0.05439543170497015</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1040143264370382</v>
+        <v>0.1028341089558192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -786,19 +786,19 @@
         <v>48139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36258</v>
+        <v>36576</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63527</v>
+        <v>61356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05006418123633316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03770743997592221</v>
+        <v>0.03803850776948652</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0660675109605745</v>
+        <v>0.0638093284447554</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>482531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>473126</v>
+        <v>474210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487780</v>
+        <v>487765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9766559199986226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9576213075005711</v>
+        <v>0.9598146785858804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872813160210601</v>
+        <v>0.9872510905679297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>449</v>
@@ -836,19 +836,19 @@
         <v>430883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>418863</v>
+        <v>419415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>440203</v>
+        <v>442060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9216967929230256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8959856735629618</v>
+        <v>0.897165891044181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9416337489434012</v>
+        <v>0.9456045682950299</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>936</v>
@@ -857,19 +857,19 @@
         <v>913414</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>898026</v>
+        <v>900197</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>925295</v>
+        <v>924977</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9499358187636668</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9339324890394255</v>
+        <v>0.9361906715552445</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9622925600240778</v>
+        <v>0.9619614922305134</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>32243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22871</v>
+        <v>22155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46533</v>
+        <v>46351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04383819491017627</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0310967237261118</v>
+        <v>0.03012294978466037</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06326743456190188</v>
+        <v>0.06302057985803565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -982,19 +982,19 @@
         <v>92644</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75729</v>
+        <v>75756</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110771</v>
+        <v>110970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1481136022982872</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.121070455533717</v>
+        <v>0.1211134546172012</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1770941432912858</v>
+        <v>0.1774124364863347</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -1003,19 +1003,19 @@
         <v>124887</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104008</v>
+        <v>105340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147720</v>
+        <v>147886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0917621220711464</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07642127469708723</v>
+        <v>0.07740005269058294</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1085392573395514</v>
+        <v>0.1086611055764859</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>703246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>688956</v>
+        <v>689138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>712618</v>
+        <v>713334</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9561618050898237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9367325654380982</v>
+        <v>0.9369794201419634</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9689032762738883</v>
+        <v>0.969877050215339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>504</v>
@@ -1053,19 +1053,19 @@
         <v>532850</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514723</v>
+        <v>514524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>549765</v>
+        <v>549738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8518863977017128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8229058567087142</v>
+        <v>0.8225875635136652</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8789295444662829</v>
+        <v>0.8788865453827986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1176</v>
@@ -1074,19 +1074,19 @@
         <v>1236095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1213262</v>
+        <v>1213096</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1256974</v>
+        <v>1255642</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9082378779288536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8914607426604487</v>
+        <v>0.8913388944235142</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9235787253029127</v>
+        <v>0.9225999473094173</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>61219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46843</v>
+        <v>47183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75775</v>
+        <v>76192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09585370127673351</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07334422283078935</v>
+        <v>0.07387651616233205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1186450671033654</v>
+        <v>0.1192984313586596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -1199,19 +1199,19 @@
         <v>128254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108380</v>
+        <v>108435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>151135</v>
+        <v>149073</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1859441652204543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1571308574665518</v>
+        <v>0.1572100450259798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2191176271659288</v>
+        <v>0.2161280334633575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -1220,19 +1220,19 @@
         <v>189473</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166402</v>
+        <v>163013</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216596</v>
+        <v>215677</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1426308965127185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1252641946554833</v>
+        <v>0.1227123976245661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1630485165433956</v>
+        <v>0.162356650943509</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>577449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>562893</v>
+        <v>562476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>591825</v>
+        <v>591485</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9041462987232665</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8813549328966344</v>
+        <v>0.8807015686413404</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9266557771692104</v>
+        <v>0.9261234838376678</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>537</v>
@@ -1270,19 +1270,19 @@
         <v>561490</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>538609</v>
+        <v>540671</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>581364</v>
+        <v>581309</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8140558347795458</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7808823728340712</v>
+        <v>0.7838719665366426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8428691425334486</v>
+        <v>0.8427899549740203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1090</v>
@@ -1291,19 +1291,19 @@
         <v>1138939</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1111816</v>
+        <v>1112735</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1162010</v>
+        <v>1165399</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8573691034872816</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8369514834566045</v>
+        <v>0.8376433490564908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8747358053445169</v>
+        <v>0.8772876023754339</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>81754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66602</v>
+        <v>64970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101516</v>
+        <v>99364</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1574772604588385</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1282918095920193</v>
+        <v>0.1251474253032909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1955446616749041</v>
+        <v>0.19139906736243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -1416,19 +1416,19 @@
         <v>149739</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130763</v>
+        <v>129453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171601</v>
+        <v>171275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.290394024826667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2535935120911664</v>
+        <v>0.2510529829588592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3327917509031239</v>
+        <v>0.3321585264983047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>223</v>
@@ -1437,19 +1437,19 @@
         <v>231493</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>205915</v>
+        <v>205013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258505</v>
+        <v>260158</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2237105338241253</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1989925821301401</v>
+        <v>0.1981210551472485</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2498141743934141</v>
+        <v>0.2514112732616163</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>437393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417631</v>
+        <v>419783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>452545</v>
+        <v>454177</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8425227395411615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8044553383250959</v>
+        <v>0.80860093263757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8717081904079806</v>
+        <v>0.8748525746967091</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>355</v>
@@ -1487,19 +1487,19 @@
         <v>365903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>344041</v>
+        <v>344367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384879</v>
+        <v>386189</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.709605975173333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6672082490968761</v>
+        <v>0.6678414735016955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7464064879088338</v>
+        <v>0.7489470170411408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>763</v>
@@ -1508,19 +1508,19 @@
         <v>803296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>776284</v>
+        <v>774631</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>828874</v>
+        <v>829776</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7762894661758747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7501858256065859</v>
+        <v>0.7485887267383836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8010074178698599</v>
+        <v>0.8018789448527516</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>162410</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143701</v>
+        <v>143911</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>181260</v>
+        <v>181829</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4199783044849174</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3715986097263109</v>
+        <v>0.3721417278814004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4687232453886724</v>
+        <v>0.4701955672465055</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>204</v>
@@ -1633,19 +1633,19 @@
         <v>208655</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188198</v>
+        <v>189363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>228436</v>
+        <v>227678</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5164905046851849</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4658524751621462</v>
+        <v>0.4687356287403859</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5654542174341615</v>
+        <v>0.563578929231596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>371</v>
@@ -1654,19 +1654,19 @@
         <v>371065</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>343527</v>
+        <v>344447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>399095</v>
+        <v>402759</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.469288753738948</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4344615201999703</v>
+        <v>0.4356249478064038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5047394523135069</v>
+        <v>0.5093728568508155</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>224300</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>205450</v>
+        <v>204881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>243009</v>
+        <v>242799</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5800216955150826</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5312767546113274</v>
+        <v>0.529804432753495</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6284013902736886</v>
+        <v>0.6278582721185997</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -1704,19 +1704,19 @@
         <v>195331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175550</v>
+        <v>176308</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215788</v>
+        <v>214623</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4835094953148151</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.434545782565839</v>
+        <v>0.436421070768404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.534147524837854</v>
+        <v>0.5312643712596141</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>417</v>
@@ -1725,19 +1725,19 @@
         <v>419631</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391601</v>
+        <v>387937</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>447169</v>
+        <v>446249</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.530711246261052</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.495260547686493</v>
+        <v>0.4906271431491845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5655384798000296</v>
+        <v>0.5643750521935962</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>153139</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>136727</v>
+        <v>137471</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>169023</v>
+        <v>169908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.523403659248842</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4673096462430839</v>
+        <v>0.4698529784110196</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5776913041690037</v>
+        <v>0.5807183681562521</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>268</v>
@@ -1850,19 +1850,19 @@
         <v>247499</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>230546</v>
+        <v>232930</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>261653</v>
+        <v>263413</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7217111536332596</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6722756996931126</v>
+        <v>0.6792282246780763</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7629830330426959</v>
+        <v>0.7681166132353542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>431</v>
@@ -1871,19 +1871,19 @@
         <v>400638</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>377057</v>
+        <v>376808</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>422012</v>
+        <v>423294</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6304131997740986</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5933081776234773</v>
+        <v>0.5929150246646886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.664044820211802</v>
+        <v>0.6660628299115181</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>139444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123560</v>
+        <v>122675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155856</v>
+        <v>155112</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.476596340751158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4223086958309967</v>
+        <v>0.4192816318437479</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5326903537569162</v>
+        <v>0.5301470215889804</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>103</v>
@@ -1921,19 +1921,19 @@
         <v>95435</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81281</v>
+        <v>79521</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>112388</v>
+        <v>110004</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2782888463667404</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2370169669573027</v>
+        <v>0.2318833867646447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3277243003068868</v>
+        <v>0.3207717753219232</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>243</v>
@@ -1942,19 +1942,19 @@
         <v>234879</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213505</v>
+        <v>212223</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>258460</v>
+        <v>258709</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3695868002259013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3359551797881979</v>
+        <v>0.3339371700884819</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4066918223765222</v>
+        <v>0.4070849753353111</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>145685</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131893</v>
+        <v>131758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>157659</v>
+        <v>158112</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6941268943756173</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6284097180596679</v>
+        <v>0.6277698862549043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7511749349629958</v>
+        <v>0.7533347100126973</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>234</v>
@@ -2067,19 +2067,19 @@
         <v>268963</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>253056</v>
+        <v>253859</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>283846</v>
+        <v>282804</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.805501632574362</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7578622176133497</v>
+        <v>0.7602676090359151</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8500734148341226</v>
+        <v>0.8469510325819292</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>387</v>
@@ -2088,19 +2088,19 @@
         <v>414649</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>392947</v>
+        <v>393894</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>433943</v>
+        <v>433521</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7625151451707781</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7226074112495864</v>
+        <v>0.724348165969392</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7979964583072041</v>
+        <v>0.797219482800787</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>64198</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52224</v>
+        <v>51771</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>77990</v>
+        <v>78125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3058731056243827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2488250650370042</v>
+        <v>0.246665289987303</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3715902819403325</v>
+        <v>0.3722301137450963</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -2138,19 +2138,19 @@
         <v>64945</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50062</v>
+        <v>51104</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>80852</v>
+        <v>80049</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1944983674256379</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1499265851658774</v>
+        <v>0.1530489674180705</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2421377823866502</v>
+        <v>0.239732390964085</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>123</v>
@@ -2159,19 +2159,19 @@
         <v>129142</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>109848</v>
+        <v>110270</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>150844</v>
+        <v>149897</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2374848548292218</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2020035416927959</v>
+        <v>0.202780517199213</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2773925887504137</v>
+        <v>0.2756518340306078</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>647983</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1101</v>
@@ -2284,19 +2284,19 @@
         <v>1132361</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1763</v>
@@ -2305,19 +2305,19 @@
         <v>1780344</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2628560</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2585072</v>
+        <v>2582836</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2674674</v>
+        <v>2673779</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8022358598294719</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7889631696918983</v>
+        <v>0.788280941881253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8163097557928803</v>
+        <v>0.8160367299758831</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2196</v>
@@ -2355,19 +2355,19 @@
         <v>2246836</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2193975</v>
+        <v>2193388</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2301916</v>
+        <v>2301881</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6649023683425367</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6492593299875423</v>
+        <v>0.6490855648855722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6812019502532202</v>
+        <v>0.6811916762808572</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4748</v>
@@ -2376,19 +2376,19 @@
         <v>4875397</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4802507</v>
+        <v>4802297</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4951800</v>
+        <v>4941245</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7325100410795651</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7215585127142404</v>
+        <v>0.7215270007675807</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7439892411471455</v>
+        <v>0.742403425746312</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>13262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7636</v>
+        <v>7558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21768</v>
+        <v>21809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02920204657657674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01681298693073505</v>
+        <v>0.01664211098491037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04793173613078355</v>
+        <v>0.04802245268615939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2744,19 +2744,19 @@
         <v>42324</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31530</v>
+        <v>31864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56122</v>
+        <v>55726</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09837524725359505</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07328695329194825</v>
+        <v>0.07406219058667725</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1304472141742205</v>
+        <v>0.1295252232498401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -2765,19 +2765,19 @@
         <v>55586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43695</v>
+        <v>41982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72075</v>
+        <v>70242</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.062853314865061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04940823694504803</v>
+        <v>0.04747128245774589</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0814980724894282</v>
+        <v>0.07942572331510107</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>440884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432378</v>
+        <v>432337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446510</v>
+        <v>446588</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9707979534234232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9520682638692164</v>
+        <v>0.9519775473138407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9831870130692649</v>
+        <v>0.9833578890150896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>379</v>
@@ -2815,19 +2815,19 @@
         <v>387906</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>374108</v>
+        <v>374504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>398700</v>
+        <v>398366</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.901624752746405</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8695527858257791</v>
+        <v>0.8704747767501598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9267130467080514</v>
+        <v>0.9259378094133227</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>811</v>
@@ -2836,19 +2836,19 @@
         <v>828790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>812301</v>
+        <v>814134</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>840681</v>
+        <v>842394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.937146685134939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9185019275105715</v>
+        <v>0.9205742766848989</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.950591763054952</v>
+        <v>0.952528717542254</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>48125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35515</v>
+        <v>36029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63991</v>
+        <v>64666</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07004234208347346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05168946753820016</v>
+        <v>0.05243678466159453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09313380943844218</v>
+        <v>0.09411605575811886</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -2961,19 +2961,19 @@
         <v>69950</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55659</v>
+        <v>55981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87479</v>
+        <v>88697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1146235330254186</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09120627902198873</v>
+        <v>0.09173364200097577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.143347472484355</v>
+        <v>0.1453434673608975</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -2982,19 +2982,19 @@
         <v>118075</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98657</v>
+        <v>99916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143459</v>
+        <v>142973</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0910128367507753</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07604554003718945</v>
+        <v>0.07701614470760977</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1105788787857315</v>
+        <v>0.110204210028459</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>638962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>623096</v>
+        <v>622421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>651572</v>
+        <v>651058</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9299576579165265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9068661905615577</v>
+        <v>0.905883944241881</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9483105324617997</v>
+        <v>0.9475632153384054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>504</v>
@@ -3032,19 +3032,19 @@
         <v>540305</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>522776</v>
+        <v>521558</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>554596</v>
+        <v>554274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8853764669745814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8566525275156451</v>
+        <v>0.8546565326391025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9087937209780114</v>
+        <v>0.908266357999024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1124</v>
@@ -3053,19 +3053,19 @@
         <v>1179267</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1153883</v>
+        <v>1154369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1198685</v>
+        <v>1197426</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9089871632492247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8894211212142681</v>
+        <v>0.8897957899715406</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.92395445996281</v>
+        <v>0.9229838552923901</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>68516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53552</v>
+        <v>54542</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84380</v>
+        <v>85355</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1004832605075848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07853766904017881</v>
+        <v>0.07998956549843254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1237490009404604</v>
+        <v>0.1251797172271978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -3178,19 +3178,19 @@
         <v>165608</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142945</v>
+        <v>143302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>188838</v>
+        <v>190067</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2329724924685706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2010908509023383</v>
+        <v>0.2015924682861453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2656504119764495</v>
+        <v>0.2673794591599992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -3199,19 +3199,19 @@
         <v>234124</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>206494</v>
+        <v>207446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>265652</v>
+        <v>266592</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1681066482828172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1482673821096376</v>
+        <v>0.1489510507083254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1907442019365705</v>
+        <v>0.1914193060980514</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>613347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>597483</v>
+        <v>596508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628311</v>
+        <v>627321</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8995167394924152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8762509990595397</v>
+        <v>0.8748202827728022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9214623309598213</v>
+        <v>0.9200104345015674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3249,19 +3249,19 @@
         <v>545242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522012</v>
+        <v>520783</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>567905</v>
+        <v>567548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7670275075314293</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7343495880235504</v>
+        <v>0.7326205408400008</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7989091490976616</v>
+        <v>0.7984075317138547</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1098</v>
@@ -3270,19 +3270,19 @@
         <v>1158588</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1127060</v>
+        <v>1126120</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1186218</v>
+        <v>1185266</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8318933517171828</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8092557980634294</v>
+        <v>0.8085806939019492</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8517326178903623</v>
+        <v>0.8510489492916745</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>100942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82099</v>
+        <v>83091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121211</v>
+        <v>120860</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1642354562227683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1335775171623388</v>
+        <v>0.1351914622046208</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1972131742402831</v>
+        <v>0.1966431002281659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>182</v>
@@ -3395,19 +3395,19 @@
         <v>203991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179677</v>
+        <v>180373</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>227716</v>
+        <v>228518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3310470578285442</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2915890757960601</v>
+        <v>0.2927186471188177</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3695496986212803</v>
+        <v>0.3708502477025186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>272</v>
@@ -3416,19 +3416,19 @@
         <v>304933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>269376</v>
+        <v>271044</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>334123</v>
+        <v>336377</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2477484892237276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2188599931252201</v>
+        <v>0.2202146811989459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2714645629723124</v>
+        <v>0.2732958365056915</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>513675</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493406</v>
+        <v>493757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>532518</v>
+        <v>531526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8357645437772316</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8027868257597169</v>
+        <v>0.8033568997718334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8664224828376612</v>
+        <v>0.8648085377953787</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>357</v>
@@ -3466,19 +3466,19 @@
         <v>412208</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388483</v>
+        <v>387681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>436522</v>
+        <v>435826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6689529421714558</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6304503013787197</v>
+        <v>0.6291497522974814</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7084109242039399</v>
+        <v>0.7072813528811822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>815</v>
@@ -3487,19 +3487,19 @@
         <v>925883</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>896693</v>
+        <v>894439</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>961440</v>
+        <v>959772</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7522515107762724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7285354370276876</v>
+        <v>0.7267041634943087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7811400068747801</v>
+        <v>0.7797853188010546</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>174516</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153492</v>
+        <v>154617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>197458</v>
+        <v>198358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4063914101156273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3574336218082765</v>
+        <v>0.3600521834753608</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4598152691378569</v>
+        <v>0.4619105142531853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>251</v>
@@ -3612,19 +3612,19 @@
         <v>273084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>245200</v>
+        <v>252532</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>290958</v>
+        <v>294682</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6098343542557809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.547566078471731</v>
+        <v>0.5639392070122027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6497488892384879</v>
+        <v>0.6580670714621558</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>413</v>
@@ -3633,19 +3633,19 @@
         <v>447600</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>415664</v>
+        <v>417825</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>477412</v>
+        <v>479249</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.510243122467461</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4738380090198081</v>
+        <v>0.4763006281264519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5442270458341877</v>
+        <v>0.5463219423956596</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>254913</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>231971</v>
+        <v>231071</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275937</v>
+        <v>274812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5936085898843727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.540184730862143</v>
+        <v>0.5380894857468146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6425663781917229</v>
+        <v>0.6399478165246392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -3683,19 +3683,19 @@
         <v>174716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>156842</v>
+        <v>153118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202600</v>
+        <v>195268</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3901656457442191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3502511107615121</v>
+        <v>0.3419329285378438</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4524339215282691</v>
+        <v>0.436060792987797</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>386</v>
@@ -3704,19 +3704,19 @@
         <v>429629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>399817</v>
+        <v>397980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>461565</v>
+        <v>459404</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.489756877532539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4557729541658121</v>
+        <v>0.4536780576043398</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5261619909801917</v>
+        <v>0.523699371873548</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>222262</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>203505</v>
+        <v>205703</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>237231</v>
+        <v>238874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7174693119229476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6569202640620326</v>
+        <v>0.6640172163185306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7657897813706822</v>
+        <v>0.7710950241828601</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>265</v>
@@ -3829,19 +3829,19 @@
         <v>271529</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>254814</v>
+        <v>254109</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>286365</v>
+        <v>287602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7670390308901526</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7198208304610265</v>
+        <v>0.7178301916539335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8089489079247544</v>
+        <v>0.8124455024887082</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>468</v>
@@ -3850,19 +3850,19 @@
         <v>493791</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>470560</v>
+        <v>470092</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>516873</v>
+        <v>516233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7439049149013457</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7089077558268903</v>
+        <v>0.7082024956376737</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7786794327153034</v>
+        <v>0.7777148467075465</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>87524</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72555</v>
+        <v>70912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106281</v>
+        <v>104083</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2825306880770523</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2342102186293177</v>
+        <v>0.2289049758171399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3430797359379674</v>
+        <v>0.3359827836814694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>79</v>
@@ -3900,19 +3900,19 @@
         <v>82467</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67631</v>
+        <v>66394</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99182</v>
+        <v>99887</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2329609691098474</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1910510920752456</v>
+        <v>0.1875544975112918</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2801791695389735</v>
+        <v>0.2821698083460665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -3921,19 +3921,19 @@
         <v>169991</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>146909</v>
+        <v>147549</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193222</v>
+        <v>193690</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2560950850986543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2213205672846968</v>
+        <v>0.2222851532924535</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2910922441731098</v>
+        <v>0.2917975043623263</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>205230</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191918</v>
+        <v>189692</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>217678</v>
+        <v>215669</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8214115093874367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7681295444689336</v>
+        <v>0.7592215383032114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8712298839698077</v>
+        <v>0.8631887527569587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>316</v>
@@ -4046,19 +4046,19 @@
         <v>350092</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>336486</v>
+        <v>337292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>361213</v>
+        <v>361691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9000267520231918</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8650481295855471</v>
+        <v>0.8671217664701552</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9286194070913932</v>
+        <v>0.9298475856421918</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>497</v>
@@ -4067,19 +4067,19 @@
         <v>555322</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>536389</v>
+        <v>536162</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>570889</v>
+        <v>572750</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8692797770141656</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8396433233984371</v>
+        <v>0.8392871333707572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8936477461951403</v>
+        <v>0.8965613747182126</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>44621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32173</v>
+        <v>34182</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57933</v>
+        <v>60159</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1785884906125633</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1287701160301924</v>
+        <v>0.1368112472430413</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2318704555310666</v>
+        <v>0.240778461696789</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -4117,19 +4117,19 @@
         <v>38887</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27766</v>
+        <v>27288</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52493</v>
+        <v>51687</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09997324797680818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07138059290860681</v>
+        <v>0.07015241435780832</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1349518704144529</v>
+        <v>0.1328782335298449</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>75</v>
@@ -4138,19 +4138,19 @@
         <v>83508</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>67941</v>
+        <v>66080</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>102441</v>
+        <v>102668</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1307202229858344</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1063522538048598</v>
+        <v>0.1034386252817875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1603566766015631</v>
+        <v>0.160712866629243</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>832854</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2430427006172313</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1279</v>
@@ -4263,19 +4263,19 @@
         <v>1376577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.386862680234676</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2040</v>
@@ -4284,19 +4284,19 @@
         <v>2209431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3163067660577515</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2593925</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2538012</v>
+        <v>2538217</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2643446</v>
+        <v>2646334</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7569572993827687</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7406407261119662</v>
+        <v>0.740700406957338</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7714083498286523</v>
+        <v>0.7722510185842242</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2019</v>
@@ -4334,19 +4334,19 @@
         <v>2181732</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2124249</v>
+        <v>2122179</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2244809</v>
+        <v>2239860</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.613137319765324</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5969827831679224</v>
+        <v>0.5964008512562676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6308639790333498</v>
+        <v>0.6294730825829981</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4467</v>
@@ -4355,19 +4355,19 @@
         <v>4775657</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4696583</v>
+        <v>4699251</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4859049</v>
+        <v>4858340</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6836932339422485</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6723727318820589</v>
+        <v>0.6727546630065062</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6956317279060483</v>
+        <v>0.6955302379936972</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>15525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9068</v>
+        <v>9159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24449</v>
+        <v>25380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0370121512077105</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02161916383397727</v>
+        <v>0.02183460811412171</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05828742310920779</v>
+        <v>0.06050577193982662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -4723,19 +4723,19 @@
         <v>37981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27154</v>
+        <v>27398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50577</v>
+        <v>49724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09596976863750352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06861299850886478</v>
+        <v>0.06922859926932441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1277983276811364</v>
+        <v>0.1256435023514356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -4744,19 +4744,19 @@
         <v>53506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40963</v>
+        <v>39539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69861</v>
+        <v>67863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0656336635128997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05024835704017801</v>
+        <v>0.0485011429201541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08569559791420332</v>
+        <v>0.08324557827628815</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>403938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>395014</v>
+        <v>394083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>410395</v>
+        <v>410304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9629878487922895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9417125768907919</v>
+        <v>0.9394942280601734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9783808361660227</v>
+        <v>0.9781653918858781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>366</v>
@@ -4794,19 +4794,19 @@
         <v>357774</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345178</v>
+        <v>346031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>368601</v>
+        <v>368357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9040302313624965</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8722016723188639</v>
+        <v>0.8743564976485645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9313870014911353</v>
+        <v>0.930771400730676</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>744</v>
@@ -4815,19 +4815,19 @@
         <v>761712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>745357</v>
+        <v>747355</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774255</v>
+        <v>775679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9343663364871003</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9143044020857968</v>
+        <v>0.9167544217237119</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.949751642959822</v>
+        <v>0.951498857079846</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>35542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24504</v>
+        <v>24826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50562</v>
+        <v>49036</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06019048683294992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04149697861048196</v>
+        <v>0.04204193484229978</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08562699083008669</v>
+        <v>0.08304146634745349</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -4940,19 +4940,19 @@
         <v>68011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52756</v>
+        <v>53837</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82728</v>
+        <v>83369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1206849780391268</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09361527305435088</v>
+        <v>0.09553370076283255</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1467996752886897</v>
+        <v>0.1479368015036148</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -4961,19 +4961,19 @@
         <v>103554</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84620</v>
+        <v>85231</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122677</v>
+        <v>124099</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08973130866028149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07332528787586653</v>
+        <v>0.0738544285811298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1063024902956884</v>
+        <v>0.1075342749513429</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>554954</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>539934</v>
+        <v>541460</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>565992</v>
+        <v>565670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9398095131670501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9143730091699138</v>
+        <v>0.9169585336525463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.958503021389518</v>
+        <v>0.9579580651577002</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>510</v>
@@ -5011,19 +5011,19 @@
         <v>495533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>480816</v>
+        <v>480175</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>510788</v>
+        <v>509707</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8793150219608732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8532003247113104</v>
+        <v>0.8520631984963852</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9063847269456491</v>
+        <v>0.9044662992371675</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1045</v>
@@ -5032,19 +5032,19 @@
         <v>1050486</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1031363</v>
+        <v>1029941</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1069420</v>
+        <v>1068809</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9102686913397185</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8936975097043116</v>
+        <v>0.8924657250486568</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9266747121241334</v>
+        <v>0.9261455714188702</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>61928</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47591</v>
+        <v>48375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77611</v>
+        <v>79041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09255455498138149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07112773614196172</v>
+        <v>0.07229818917888514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1159931390082923</v>
+        <v>0.1181304591098552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -5157,19 +5157,19 @@
         <v>108539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90938</v>
+        <v>92444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129811</v>
+        <v>130247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1641089218267975</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1374957463598385</v>
+        <v>0.1397728488034559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1962714500131043</v>
+        <v>0.196930949715549</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -5178,19 +5178,19 @@
         <v>170467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147979</v>
+        <v>148823</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194444</v>
+        <v>195415</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1281244025741212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1112216674810669</v>
+        <v>0.1118561296354574</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1461456789405891</v>
+        <v>0.1468752324444328</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>607169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>591486</v>
+        <v>590056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621506</v>
+        <v>620722</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9074454450186186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8840068609917078</v>
+        <v>0.8818695408901451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9288722638580383</v>
+        <v>0.927701810821115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>556</v>
@@ -5228,19 +5228,19 @@
         <v>552847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>531575</v>
+        <v>531139</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>570448</v>
+        <v>568942</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8358910781732025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8037285499868957</v>
+        <v>0.803069050284451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8625042536401615</v>
+        <v>0.860227151196544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1136</v>
@@ -5249,19 +5249,19 @@
         <v>1160016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1136039</v>
+        <v>1135068</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1182504</v>
+        <v>1181660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8718755974258788</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8538543210594109</v>
+        <v>0.8531247675555672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8887783325189331</v>
+        <v>0.8881438703645427</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>140725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121764</v>
+        <v>119576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164254</v>
+        <v>164074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2178245886128811</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1884758538960432</v>
+        <v>0.1850880585488267</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2542442337613832</v>
+        <v>0.2539660846101281</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -5374,19 +5374,19 @@
         <v>206220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>183290</v>
+        <v>183732</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232178</v>
+        <v>229879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3177125539268412</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2823857444385461</v>
+        <v>0.2830658088123342</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3577054779678105</v>
+        <v>0.3541636028062394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>321</v>
@@ -5395,19 +5395,19 @@
         <v>346945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>315905</v>
+        <v>314905</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>380970</v>
+        <v>379360</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2678853649059077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2439182493475202</v>
+        <v>0.2431462082880312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2941568496187211</v>
+        <v>0.2929140763590122</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>505323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481794</v>
+        <v>481974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524284</v>
+        <v>526472</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.782175411387119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7457557662386168</v>
+        <v>0.7460339153898718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8115241461039568</v>
+        <v>0.8149119414511733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>411</v>
@@ -5445,19 +5445,19 @@
         <v>442857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>416899</v>
+        <v>419198</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>465787</v>
+        <v>465345</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6822874460731587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6422945220321895</v>
+        <v>0.6458363971937605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7176142555614538</v>
+        <v>0.7169341911876658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>863</v>
@@ -5466,19 +5466,19 @@
         <v>948180</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>914155</v>
+        <v>915765</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>979220</v>
+        <v>980220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7321146350940922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7058431503812787</v>
+        <v>0.7070859236409875</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7560817506524797</v>
+        <v>0.7568537917119686</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>176302</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156328</v>
+        <v>154902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>200744</v>
+        <v>197918</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3688967060816167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3271031208577665</v>
+        <v>0.3241175711376642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.420037561034054</v>
+        <v>0.4141264582621736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -5591,19 +5591,19 @@
         <v>270545</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>248214</v>
+        <v>248451</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>294849</v>
+        <v>293919</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5445216138099462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4995770098122645</v>
+        <v>0.5000525104573202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5934372108016673</v>
+        <v>0.5915659465513512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>393</v>
@@ -5612,19 +5612,19 @@
         <v>446847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>415545</v>
+        <v>413866</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>479870</v>
+        <v>479433</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4584145703877893</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4263023216379594</v>
+        <v>0.4245797446203535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4922922040855968</v>
+        <v>0.4918432164447151</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>301616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>277174</v>
+        <v>280000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>321590</v>
+        <v>323016</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6311032939183833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5799624389659459</v>
+        <v>0.5858735417378266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6728968791422333</v>
+        <v>0.6758824288623357</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>196</v>
@@ -5662,19 +5662,19 @@
         <v>226304</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202000</v>
+        <v>202930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>248635</v>
+        <v>248398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4554783861900538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4065627891983329</v>
+        <v>0.4084340534486489</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5004229901877359</v>
+        <v>0.4999474895426798</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>464</v>
@@ -5683,19 +5683,19 @@
         <v>527920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>494897</v>
+        <v>495334</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>559222</v>
+        <v>560901</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5415854296122107</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5077077959144032</v>
+        <v>0.5081567835552849</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5736976783620406</v>
+        <v>0.5754202553796466</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>189962</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>172253</v>
+        <v>172715</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>208338</v>
+        <v>208422</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5681885566480963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5152186336646901</v>
+        <v>0.516599900115857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6231504010450762</v>
+        <v>0.6234023755056497</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>250</v>
@@ -5808,19 +5808,19 @@
         <v>263829</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>246447</v>
+        <v>243567</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>281399</v>
+        <v>281205</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6984006767135601</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6523877768147396</v>
+        <v>0.6447624550901264</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7449104098800254</v>
+        <v>0.7443979352969886</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>435</v>
@@ -5829,19 +5829,19 @@
         <v>453792</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>425474</v>
+        <v>428980</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>479498</v>
+        <v>481441</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6372655735576658</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5974988045510832</v>
+        <v>0.6024224296628454</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6733652850036664</v>
+        <v>0.6760933231545848</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>144368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125992</v>
+        <v>125908</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162077</v>
+        <v>161615</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4318114433519036</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3768495989549236</v>
+        <v>0.3765976244943503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4847813663353098</v>
+        <v>0.4834000998841432</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -5879,19 +5879,19 @@
         <v>113933</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96363</v>
+        <v>96557</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131315</v>
+        <v>134195</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3015993232864399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2550895901199745</v>
+        <v>0.255602064703011</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3476122231852604</v>
+        <v>0.3552375449098735</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>244</v>
@@ -5900,19 +5900,19 @@
         <v>258300</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>232594</v>
+        <v>230651</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>286618</v>
+        <v>283112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3627344264423342</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3266347149963336</v>
+        <v>0.3239066768454153</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4025011954489168</v>
+        <v>0.3975775703371546</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>189623</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>175587</v>
+        <v>177274</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201994</v>
+        <v>202915</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7378376677731475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6832233534352626</v>
+        <v>0.6897867776022764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7859736535669701</v>
+        <v>0.7895574435650218</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>243</v>
@@ -6025,19 +6025,19 @@
         <v>324656</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>305809</v>
+        <v>303174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>341076</v>
+        <v>341255</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8112974275504595</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7641986725768233</v>
+        <v>0.7576148286102221</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8523301981222406</v>
+        <v>0.8527768025038196</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>464</v>
@@ -6046,19 +6046,19 @@
         <v>514279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>492762</v>
+        <v>489888</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>536409</v>
+        <v>535063</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7825695525852744</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7498280432356613</v>
+        <v>0.745454633796689</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8162451780528821</v>
+        <v>0.814195864946234</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>67375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55004</v>
+        <v>54083</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81411</v>
+        <v>79724</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2621623322268524</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2140263464330298</v>
+        <v>0.2104425564349783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3167766465647373</v>
+        <v>0.3102132223977238</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>58</v>
@@ -6096,19 +6096,19 @@
         <v>75513</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>59093</v>
+        <v>58914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>94360</v>
+        <v>96995</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1887025724495405</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.14766980187776</v>
+        <v>0.1472231974961806</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2358013274231778</v>
+        <v>0.2423851713897783</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>139</v>
@@ -6117,19 +6117,19 @@
         <v>142888</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>120758</v>
+        <v>122104</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>164405</v>
+        <v>167279</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2174304474147256</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1837548219471183</v>
+        <v>0.1858041350537659</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2501719567643387</v>
+        <v>0.2545453662033109</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>809608</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2385164248893366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1137</v>
@@ -6242,19 +6242,19 @@
         <v>1279781</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3610569180493427</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1934</v>
@@ -6263,19 +6263,19 @@
         <v>2089390</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3011128600502788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2584742</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2532098</v>
+        <v>2534274</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2633998</v>
+        <v>2630276</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7614835751106634</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7459741994392232</v>
+        <v>0.7466154825692544</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7759948987266869</v>
+        <v>0.7748982617606555</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2201</v>
@@ -6313,19 +6313,19 @@
         <v>2264761</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2205252</v>
+        <v>2208794</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2324091</v>
+        <v>2331679</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6389430819506573</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6221544277663508</v>
+        <v>0.6231536873871932</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6556815827050075</v>
+        <v>0.6578224130927982</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4635</v>
@@ -6334,19 +6334,19 @@
         <v>4849502</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4772231</v>
+        <v>4775291</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4937298</v>
+        <v>4925148</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6988871399497212</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6877511663029169</v>
+        <v>0.6881920911184298</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.711539823844533</v>
+        <v>0.7097887586284245</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>44285</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26084</v>
+        <v>27016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71461</v>
+        <v>69110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1085968703104334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0639637796725232</v>
+        <v>0.06624980050712716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1752386353056987</v>
+        <v>0.1694741842346188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -6702,19 +6702,19 @@
         <v>74034</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54061</v>
+        <v>54864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97288</v>
+        <v>98474</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2042237817738141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1491299053606341</v>
+        <v>0.1513445042455643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2683706251529837</v>
+        <v>0.2716425280737068</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -6723,19 +6723,19 @@
         <v>118319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88682</v>
+        <v>89963</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149418</v>
+        <v>148843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1535996923631189</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1151263571216184</v>
+        <v>0.1167885359361895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.193971967202048</v>
+        <v>0.1932261027991094</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>363508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>336332</v>
+        <v>338683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381709</v>
+        <v>380777</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8914031296895668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8247613646943014</v>
+        <v>0.8305258157653813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9360362203274768</v>
+        <v>0.9337501994928727</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -6773,19 +6773,19 @@
         <v>288478</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265224</v>
+        <v>264038</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308451</v>
+        <v>307648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7957762182261858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7316293748470163</v>
+        <v>0.728357471926293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8508700946393661</v>
+        <v>0.8486554957544358</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>325</v>
@@ -6794,19 +6794,19 @@
         <v>651986</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>620887</v>
+        <v>621462</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>681623</v>
+        <v>680342</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8464003076368812</v>
+        <v>0.8464003076368809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8060280327979519</v>
+        <v>0.8067738972008908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8848736428783814</v>
+        <v>0.8832114640638105</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>55010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39698</v>
+        <v>38867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74122</v>
+        <v>72564</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1153513132596228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08324397898552083</v>
+        <v>0.08150074271784724</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1554283510983583</v>
+        <v>0.1521608561311852</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -6919,19 +6919,19 @@
         <v>109451</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91854</v>
+        <v>90262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128486</v>
+        <v>127843</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2181462789893617</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1830741211382886</v>
+        <v>0.1798996503011514</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.256083644953259</v>
+        <v>0.254802088601484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -6940,19 +6940,19 @@
         <v>164461</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140308</v>
+        <v>138985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191813</v>
+        <v>193308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1680535212988036</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1433729620828366</v>
+        <v>0.1420208357258078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1960034314946036</v>
+        <v>0.1975311213953332</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>421880</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402768</v>
+        <v>404326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>437192</v>
+        <v>438023</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8846486867403771</v>
+        <v>0.8846486867403773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8445716489016416</v>
+        <v>0.847839143868815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9167560210144792</v>
+        <v>0.9184992572821534</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -6990,19 +6990,19 @@
         <v>392282</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>373247</v>
+        <v>373890</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>409879</v>
+        <v>411471</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7818537210106382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7439163550467411</v>
+        <v>0.745197911398516</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8169258788617116</v>
+        <v>0.8201003496988486</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>624</v>
@@ -7011,19 +7011,19 @@
         <v>814162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>786810</v>
+        <v>785315</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>838315</v>
+        <v>839638</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8319464787011963</v>
+        <v>0.8319464787011964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8039965685053964</v>
+        <v>0.8024688786046668</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8566270379171633</v>
+        <v>0.8579791642741925</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>86474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69054</v>
+        <v>68447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106628</v>
+        <v>105615</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1392854122607599</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1112274347352651</v>
+        <v>0.1102499661738662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1717481393879829</v>
+        <v>0.1701172891806524</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>242</v>
@@ -7136,19 +7136,19 @@
         <v>176798</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157108</v>
+        <v>157777</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196658</v>
+        <v>195618</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2836969847866209</v>
+        <v>0.283696984786621</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2521019055674325</v>
+        <v>0.2531758904255608</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3155649710944154</v>
+        <v>0.3138965901633798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>319</v>
@@ -7157,19 +7157,19 @@
         <v>263271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>236526</v>
+        <v>236884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>290628</v>
+        <v>288902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2116279338640196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1901294029811255</v>
+        <v>0.1904164428398655</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2336183916568235</v>
+        <v>0.2322306618777894</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>534363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514209</v>
+        <v>515222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>551783</v>
+        <v>552390</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8607145877392401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8282518606120171</v>
+        <v>0.8298827108193476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.888772565264735</v>
+        <v>0.8897500338261338</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>606</v>
@@ -7207,19 +7207,19 @@
         <v>446395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>426535</v>
+        <v>427575</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>466085</v>
+        <v>465416</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.716303015213379</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6844350289055846</v>
+        <v>0.6861034098366201</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7478980944325676</v>
+        <v>0.7468241095744393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1075</v>
@@ -7228,19 +7228,19 @@
         <v>980758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>953401</v>
+        <v>955127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1007503</v>
+        <v>1007145</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7883720661359804</v>
+        <v>0.7883720661359803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7663816083431767</v>
+        <v>0.7677693381222107</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8098705970188745</v>
+        <v>0.8095835571601345</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>211691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186435</v>
+        <v>189247</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>235307</v>
+        <v>236272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3021495229456418</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.266100814641139</v>
+        <v>0.2701149367435771</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3358562359730502</v>
+        <v>0.3372342161621807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>491</v>
@@ -7353,19 +7353,19 @@
         <v>317964</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>297112</v>
+        <v>296594</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>339873</v>
+        <v>336747</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4314965567914538</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4031997641279594</v>
+        <v>0.4024965947340544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4612285558430387</v>
+        <v>0.4569860398565022</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>690</v>
@@ -7374,19 +7374,19 @@
         <v>529655</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494641</v>
+        <v>496134</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>561249</v>
+        <v>565293</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.368454797760687</v>
+        <v>0.3684547977606871</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3440972381500076</v>
+        <v>0.345135855210988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3904330801027165</v>
+        <v>0.3932463333837533</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>488926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>465310</v>
+        <v>464345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514182</v>
+        <v>511370</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6978504770543582</v>
+        <v>0.697850477054358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6641437640269499</v>
+        <v>0.6627657838378195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.733899185358861</v>
+        <v>0.7298850632564229</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>650</v>
@@ -7424,19 +7424,19 @@
         <v>418922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397013</v>
+        <v>400139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>439774</v>
+        <v>440292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5685034432085462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5387714441569613</v>
+        <v>0.543013960143498</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5968002358720407</v>
+        <v>0.5975034052659458</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1116</v>
@@ -7445,19 +7445,19 @@
         <v>907849</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>876255</v>
+        <v>872211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>942863</v>
+        <v>941370</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6315452022393129</v>
+        <v>0.631545202239313</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6095669198972837</v>
+        <v>0.6067536666162467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6559027618499925</v>
+        <v>0.6548641447890119</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>280280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>258322</v>
+        <v>259015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>303057</v>
+        <v>303495</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4599679511025341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4239324645883233</v>
+        <v>0.4250702538435721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4973477713325403</v>
+        <v>0.4980665355884201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>564</v>
@@ -7570,19 +7570,19 @@
         <v>343542</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>323482</v>
+        <v>324411</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>363719</v>
+        <v>361714</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.564243268581192</v>
+        <v>0.5642432685811921</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.531295136155025</v>
+        <v>0.53282176618299</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5973819556596645</v>
+        <v>0.5940896073143896</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>876</v>
@@ -7591,19 +7591,19 @@
         <v>623822</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>593039</v>
+        <v>588233</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>654635</v>
+        <v>653836</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5120845937375096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4868151955783028</v>
+        <v>0.4828699796151625</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5373780913497411</v>
+        <v>0.536721856302529</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>329066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>306289</v>
+        <v>305851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>351024</v>
+        <v>350331</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5400320488974659</v>
+        <v>0.5400320488974658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5026522286674596</v>
+        <v>0.5019334644115799</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5760675354116767</v>
+        <v>0.574929746156428</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>438</v>
@@ -7641,19 +7641,19 @@
         <v>265313</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>245136</v>
+        <v>247141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>285373</v>
+        <v>284444</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4357567314188079</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4026180443403354</v>
+        <v>0.4059103926856103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.468704863844975</v>
+        <v>0.4671782338170099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>789</v>
@@ -7662,19 +7662,19 @@
         <v>594380</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>563567</v>
+        <v>564366</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>625163</v>
+        <v>629969</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4879154062624905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4626219086502588</v>
+        <v>0.4632781436974709</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5131848044216971</v>
+        <v>0.5171300203848374</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>231964</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>215694</v>
+        <v>214010</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249474</v>
+        <v>246842</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5698246500943124</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5298568128522438</v>
+        <v>0.5257197368546017</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6128389855899394</v>
+        <v>0.6063733574209206</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>593</v>
@@ -7787,19 +7787,19 @@
         <v>315581</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>302012</v>
+        <v>301110</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>327824</v>
+        <v>327796</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7185917656523055</v>
+        <v>0.7185917656523053</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6876947403544609</v>
+        <v>0.6856414560487949</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.746468581756206</v>
+        <v>0.7464053034137464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>923</v>
@@ -7808,19 +7808,19 @@
         <v>547545</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>525427</v>
+        <v>523763</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>570434</v>
+        <v>567936</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6470285522659877</v>
+        <v>0.6470285522659878</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6208912451926495</v>
+        <v>0.6189247243236904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6740762684201744</v>
+        <v>0.6711237850131542</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>175116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157606</v>
+        <v>160238</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191386</v>
+        <v>193070</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4301753499056876</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3871610144100606</v>
+        <v>0.3936266425790793</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4701431871477562</v>
+        <v>0.4742802631453981</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -7858,19 +7858,19 @@
         <v>123585</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111342</v>
+        <v>111370</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137154</v>
+        <v>138056</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2814082343476947</v>
+        <v>0.2814082343476946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.253531418243794</v>
+        <v>0.2535946965862536</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3123052596455388</v>
+        <v>0.3143585439512052</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>474</v>
@@ -7879,19 +7879,19 @@
         <v>298701</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>275812</v>
+        <v>278310</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>320819</v>
+        <v>322483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3529714477340122</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3259237315798251</v>
+        <v>0.3288762149868461</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3791087548073507</v>
+        <v>0.3810752756763097</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>231116</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>217105</v>
+        <v>217904</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243969</v>
+        <v>244136</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7450583171555587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.699891506449504</v>
+        <v>0.7024686888893731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7864954074228858</v>
+        <v>0.7870332033643368</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>746</v>
@@ -8004,19 +8004,19 @@
         <v>386772</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>373609</v>
+        <v>373572</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>398670</v>
+        <v>397751</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8324680491312715</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8041362520357473</v>
+        <v>0.8040566247383171</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8580757406404586</v>
+        <v>0.8560978001562216</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1097</v>
@@ -8025,19 +8025,19 @@
         <v>617888</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>598857</v>
+        <v>600035</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>634974</v>
+        <v>635967</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7974730838986895</v>
+        <v>0.7974730838986894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7729105463446246</v>
+        <v>0.7744317579157189</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8195256170524474</v>
+        <v>0.8208071311334736</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>79082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>66229</v>
+        <v>66062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>93093</v>
+        <v>92294</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2549416828444412</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.213504592577114</v>
+        <v>0.2129667966356631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3001084935504958</v>
+        <v>0.2975313111106268</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>135</v>
@@ -8075,19 +8075,19 @@
         <v>77837</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>65939</v>
+        <v>66858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>91000</v>
+        <v>91037</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1675319508687284</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1419242593595413</v>
+        <v>0.1439021998437784</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1958637479642525</v>
+        <v>0.195943375261683</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>242</v>
@@ -8096,19 +8096,19 @@
         <v>156919</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>139833</v>
+        <v>138840</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>175950</v>
+        <v>174772</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2025269161013105</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1804743829475526</v>
+        <v>0.1791928688665271</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2270894536553757</v>
+        <v>0.2255682420842816</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1140819</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3229256272451861</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2774</v>
@@ -8221,19 +8221,19 @@
         <v>1724142</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4613763600743805</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4098</v>
@@ -8242,19 +8242,19 @@
         <v>2864962</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3940954002529922</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2391943</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2332014</v>
+        <v>2335965</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2446596</v>
+        <v>2452619</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6770743727548139</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6601106971750552</v>
+        <v>0.6612290737306259</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.692544828428809</v>
+        <v>0.6942495826913002</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2593</v>
@@ -8292,19 +8292,19 @@
         <v>2012812</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1960852</v>
+        <v>1959294</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2067456</v>
+        <v>2064842</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5386236399256196</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5247193223872821</v>
+        <v>0.5243025436289048</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5532464404442468</v>
+        <v>0.5525469155061506</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4645</v>
@@ -8313,19 +8313,19 @@
         <v>4404754</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4327603</v>
+        <v>4331482</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4493499</v>
+        <v>4494511</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6059045997470078</v>
+        <v>0.6059045997470077</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5952918538602054</v>
+        <v>0.5958255101935952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6181120798630629</v>
+        <v>0.6182512345917447</v>
       </c>
     </row>
     <row r="27">
